--- a/Data/Processed/02_Metadados_Behav-Analyse_Acoustic-Exp.xlsx
+++ b/Data/Processed/02_Metadados_Behav-Analyse_Acoustic-Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Mestrado\Projeto\Artigos\Experimento\BESocio\Article_behav-S.max_V03\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1056FA-34C7-4C8C-BB08-DA7964455A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF3014-AC0D-4FD4-A2A4-B7EDD377D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="10050" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,18 +656,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
